--- a/google_nq/expe/02. Answers/google_nq_json.xlsx
+++ b/google_nq/expe/02. Answers/google_nq_json.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilles_recital\source\repos\ragtime-projects\google_nq\expe\01. Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilles_recital\source\repos\rag-projects\google_nq\expe\02. Answers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F128C86E-5C1B-4E24-A0B6-DEA0D44F4974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9606B8-810F-4178-968F-C010364B24CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB4656B7-6488-4B39-9802-A727D98841DF}"/>
   </bookViews>
@@ -146,18 +146,12 @@
     <t>In 1935, Paul supervises officers Brutus Howell, Dean Stanton, Harry Terwilliger, and Percy Wetmore at Cold Mountain Penitentiary. Paul is suffering from a severe bladder infection and receives John Coffey, a physically imposing but mentally challenged black man, into his custody. John had been sentenced to death after being convicted of raping and murdering two white girls. One of the other inmates is a Native-American named Arlen Bitterbuck, who is charged with murder and is the first to be executed. Percy demonstrates a severe sadistic streak, but, as the nephew of Louisiana's First Lady, he is beyond reproach. He is particularly abusive with inmate Eduard Delacroix; he breaks Del's fingers with his baton, steps on a pet mouse named Mr. Jingles, which Del had adopted, repeatedly calls him by a gay slur, and ultimately sabotages his execution by failing to soak the sponge used to conduct electricity to Del's head; Del dies screaming in pain.</t>
   </si>
   <si>
-    <t>King's Highway 401, commonly referred to as Highway 401 and also known by its official name as the Macdonald–Cartier Freeway or colloquially as the four-oh-one,[3] is a controlled-access400-series highway in the Canadian province of Ontario. It stretches 828.0 kilometres (514.5 mi) from Windsor in the west to the Ontario–Quebec border in the east. The part of Highway 401 that passes through Toronto is North America's busiest highway,[4][5] and one of the widest.[6][7] Together with Quebec Autoroute 20, it forms the road transportation backbone of the Quebec City–Windsor Corridor, along which over half of Canada's population resides and is also a Core Route in the National Highway System of Canada. The route is maintained by the Ministry of Transportation of Ontario (MTO) and patrolled by the Ontario Provincial Police. The speed limit is 100 km/h (62 mph) throughout its length, unless posted otherwise.</t>
-  </si>
-  <si>
     <t>After Frank and Brenda's packages are chosen by a woman named Camille Toh to leave Shopwell's, a returned jar of Bickle's Honey Mustard tries to warn the groceries that the Great Beyond is a lie; nobody listens except for Frank. Honey Mustard calls on Frank to seek out a bottle of liquor named Firewater, and then falls to his death. This creates an accidental cart collision that causes Frank, Brenda, and several groceries to fall out, including an aggressive Douche who gets his nozzle bent, and plots revenge against Frank and Brenda.</t>
   </si>
   <si>
     <t>The electrons in an atom are attracted to the protons in the nucleus by the electromagnetic force. This force binds the electrons inside an electrostaticpotential well surrounding the smaller nucleus, which means that an external source of energy is needed for the electron to escape. The closer an electron is to the nucleus, the greater the attractive force. Hence electrons bound near the center of the potential well require more energy to escape than those at greater separations.</t>
   </si>
   <si>
-    <t>She attended the British drama school East 15 in 2005, and left after winning a high-profile role in the BBC drama Waterloo Road, playing the bully Leigh-Ann Galloway.[6] Since that role, Matthews has continued to act in BBC's Doctors, playing Connie Whitfield; in ITV's The Bill playing drug addict Josie Clarke; and she was back in the BBC soap Doctors in 2009, playing Tansy Flack.</t>
-  </si>
-  <si>
     <t>2006 brought footage of Travis Pastrana completing a double backflip on an uphill/sand setup on his popular 'Nitro Circus' Freestyle Motocross movies. On August 4, 2006, at X Games 12 in Los Angeles, he became the first rider to land a double backflip in competition. Having landed another trick that many had considered impossible, he vowed never to do it again.</t>
   </si>
   <si>
@@ -170,27 +164,12 @@
     <t>The Battle of Palmito Ranch is considered by some criteria as the final battle of the American Civil War. It was fought May 12 and 13, 1865, on the banks of the Rio Grande east of Brownsville, Texas and a few miles from the seaport of Los Brazos de Santiago. Since the Confederacy had ceased to exist, it is also argued that this battle should be classified as a postwar action.</t>
   </si>
   <si>
-    <t>In the 19th century, the mass-to-charge ratios of some ions were measured by electrochemical methods. In 1897, the mass-to-charge ratio of the electron was first measured by J. J. Thomson. [6] By doing this, he showed that the electron was in fact a particle with a mass and a charge, and that its mass-to-charge ratio was much smaller than that of the hydrogen ion H+. In 1898, Wilhelm Wien separated ions (canal rays) according to their mass-to-charge ratio with an ion optical device with superimposed electric and magnetic fields (Wien filter). In 1901 Walter Kaufman measured the increase of electromagnetic mass of fast electrons (Kaufmann–Bucherer–Neumann experiments), or relativistic mass increase in modern terms. In 1913, Thomson measured the mass-to-charge ratio of ions with an instrument he called a parabola spectrograph.[7] Today, an instrument that measures the mass-to-charge ratio of charged particles is called a mass spectrometer.</t>
-  </si>
-  <si>
-    <t>Downs is a surname of Old English origin.[1]</t>
-  </si>
-  <si>
     <t>'Long Train Runnin'' (or 'Long Train Running') is a song recorded by The Doobie Brothers and written by band member Tom Johnston. It was included on the band's 1973 album The Captain and Me and released as a single, becoming a top 10 hit on the US Billboard Hot 100, peaking at number 8.</t>
   </si>
   <si>
-    <t>The acceleration due to gravity on the surface of the Moon is about 1.625 m/s2, about 16.6% that on Earth's surface or 0.16 ɡ.[1] Over the entire surface, the variation in gravitational acceleration is about 0.0253 m/s2 (1.6% of the acceleration due to gravity). Because weight is directly dependent upon gravitational acceleration, things on the Moon will weigh only 16.6% of what they weigh on the Earth.</t>
-  </si>
-  <si>
     <t>The story, illustrated by the author, is set in England during the Middle Ages, as the Black Death (bubonic plague) is sweeping across the country. Young Robin is sent away to become a knight like his father, but his dreams are endangered when he loses the use of his legs. A doctor reassures Robin that the weakness in his legs is not caused by the plague and the doctor is supposed to come and help him but does not. His parents are away, serving the king and queen during war, and the servants abandon the house, fearing the plague. Robin is saved by Brother Luke, a friar, who finds him and takes him to a monastery and cares for him.</t>
   </si>
   <si>
-    <t>Two months before filming, Lori Petty, Reeves and Swayze trained with former world-class professional surfer Dennis Jarvis on the Hawaiian island of Kauai.[7] Jarvis remembers, 'Patrick said he'd been on a board a couple of times, Keanu definitely had not surfed before, and Lori had never been in the ocean in her life.'[10] Shooting the surfing sequences proved to be challenging for both actors, with Swayze cracking four of his ribs. For many of the surfing scenes, he refused to use a stunt double as he never had one for fight scenes or car chases. He also did the skydiving scenes himself and the film's aerial jump instructor Jim Wallace found that the actor was a natural and took to it right away.[7] The actor ended up making 55 jumps for the film.[11] Swayze actually based aspects of his character after one of his stunt doubles, Darrick Doerner, a top big wave surfer.[12] After learning to surf for the film, Reeves took a liking to it and took it up as a hobby.[13]</t>
-  </si>
-  <si>
-    <t>The Film and Publication Board, often shortened to FPB, is a content-classification and censorship authority in South Africa, operating under the Minister of Communications. The FPB was established in 1998[1] under the Films and Publications Act, ostensibly to tackle issues of child pornography and child abuse, as well as to provide ratings to publicly consumed media such as movies, music and television programs. Under these directives, its mandate can be considered one of state censorship.</t>
-  </si>
-  <si>
     <t>Before the 1984 Winter Olympics, a dispute formed over what made a player a professional. The IOC had adopted a rule that made any player who had signed an NHL contract but played less than ten games in the league eligible. However, the United States Olympic Committee maintained that any player contracted with an NHL team was a professional and therefore not eligible to play. The IOC held an emergency meeting that ruled NHL-contracted players were eligible, as long as they had not played in any NHL games.[17] This made five players on Olympic rosters—one Austrian, two Italians and two Canadians—ineligible. Players who had played in other professional leagues—such as the World Hockey Association—were allowed to play.[17] Canadian hockey official Alan Eagleson stated that the rule was only applied to the NHL and that professionally contracted players in European leagues were still considered amateurs.[18]Murray Costello of the CAHA suggested that a Canadian withdrawal was possible.[19] In 1986, the IOC voted to allow all athletes to compete in Olympic Games starting in 1988,[20] but let the individual sport federations decide if they wanted to allow professionals.[21]</t>
   </si>
   <si>
@@ -200,24 +179,9 @@
     <t>The Seventh-day Adventist Church had its roots in the Millerite movement of the 1830s to the 1840s, during the period of the Second Great Awakening, and was officially founded in 1863. Prominent figures in the early church included Hiram Edson, James Springer White, Joseph Bates, and J. N. Andrews. Over the ensuing decades the church expanded from its original base in New England to become an international organization. Significant developments such the reviews initiated by evangelicals Donald Barnhouse and Walter Martin, in the 20th century led to its recognition as a Christian denomination.</t>
   </si>
   <si>
-    <t>California State University, East Bay (commonly referred to as Cal State East Bay, CSU East Bay, or CSUEB) is a publicuniversity located in Hayward, California, United States. The university, as part of the 23-campus California State University system, offers 136 undergraduate and 60 post-baccalaureate a reas of study. California State University, East Bay has been designated a top–tier institution among master's–granting universities in the west by U.S. News &amp; World Report[6] and has been recognized as a 'Best in the West' college by the Princeton Review.[6]</t>
-  </si>
-  <si>
-    <t>Anamudi (Malayalam pronunciation: ​[aːnɐmʊɖi], ആനമുടി) is a mountain located in the Indian state of Kerala. It is the highest peak in the Kerala and South India, at an elevation of 2,695 metres (8,842 ft)[1][2] and a topographic prominence of 2,479 metres (8,133 ft).[3] It lies on the border of Devikulam Taluk, Idukki district and Kothamangalam Taluk, Ernakulam district.[5] The name Anamudi literally translates to 'elephant's forehead,' a reference to the resemblance of the mountain to an elephant's head.[6]</t>
-  </si>
-  <si>
-    <t>The 'goose bumps' (piloerection) that occurs with sudden discontinuation in persons dependent on opioids, frequently persons addicted to heroin.[1][2] Similarly the term 'kick the habit' alludes to the muscle spasms that also occur.[1]</t>
-  </si>
-  <si>
     <t>Baccarat chemin-de-fer is the favoured game of James Bond, the fictional secret agent created by Ian Fleming.[25] Bond plays the game in numerous novels, most notably his 1953 debut, Casino Royale, in which the entire plot revolves around a game between Bond and SMERSH operative Le Chiffre; the unabridged version of the novel includes a primer to the game for readers who are unfamiliar with it. It is also featured in several filmed versions of the novels, including the 1954 television adaption Casino Royale (Climax!), where Bond, referred to as 'Jimmy' by several characters, bankrupts Le Chiffre in order to have him eliminated by his Soviet superiors; Dr. No, where Bond is first introduced playing the game in film; Thunderball; the 1967 version of Casino Royale, which is the most detailed treatment of a baccarat game in any Bond film; On Her Majesty's Secret Service; For Your Eyes Only; and GoldenEye.</t>
   </si>
   <si>
-    <t>Impeachment in the United States is an enumerated power of the legislature that allows formal charges to be brought against a civil officer of government for crimes alleged to have been committed. Most impeachments have concerned alleged crimes committed while in office, though there have been a few cases in which Congress has impeached and convicted officials partly for prior crimes.[1] The actual trial on such charges, and subsequent removal of an official upon conviction, is separate from the act of impeachment itself. Impeachment proceedings have been initiated against several presidents of the United States. Andrew Johnson and Bill Clinton are the only two presidents to have been successfully impeached by the House of Representatives, and both were later acquitted by the Senate.[2] The impeachment process against Richard Nixon was never completed, as Nixon resigned his office before the vote of the full House for impeachment, but such a vote was widely expected to pass, and the threat of it and a subsequent conviction in the Senate was the impetus for Nixon's departure. To date, no president has been removed from office by impeachment and conviction. The impeached official continues in office until conviction.</t>
-  </si>
-  <si>
-    <t>The use of petroleum dates back to ancient China more than 2000 years ago. In I Ching, one of the earliest Chinese writings cites the use of oil in its raw state without refining was first discovered, extracted, and used in China in the first century BCE. In addition, the Chinese were the first to use petroleum as fuel as the early as the fourth century BCE.[2][3][4][5]</t>
-  </si>
-  <si>
     <t>If the President of the Philippines is on trial, such as in 2001, the Chief Justice of the Supreme Court of the Philippines shall preside but not vote.</t>
   </si>
   <si>
@@ -228,6 +192,42 @@
   </si>
   <si>
     <t>In eukaryotes, oxidative phosphorylation occurs in the mitochondrial cristae. It comprises the electron transport chain that establishes a proton gradient (chemiosmotic potential) across the boundary of inner membrane by oxidizing the NADH produced from the Krebs cycle. ATP is synthesized by the ATP synthase enzyme when the chemiosmotic gradient is used to drive the phosphorylation of ADP. The electrons are finally transferred to exogenous oxygen and, with the addition of two protons, water is formed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downs is a surname of Old English origin. </t>
+  </si>
+  <si>
+    <t>The acceleration due to gravity on the surface of the Moon is about 1.625 m/s2, about 16.6% that on Earth's surface or 0.16 ɡ.  Over the entire surface, the variation in gravitational acceleration is about 0.0253 m/s2 (1.6% of the acceleration due to gravity). Because weight is directly dependent upon gravitational acceleration, things on the Moon will weigh only 16.6% of what they weigh on the Earth.</t>
+  </si>
+  <si>
+    <t>The Film and Publication Board, often shortened to FPB, is a content-classification and censorship authority in South Africa, operating under the Minister of Communications. The FPB was established in 1998  under the Films and Publications Act, ostensibly to tackle issues of child pornography and child abuse, as well as to provide ratings to publicly consumed media such as movies, music and television programs. Under these directives, its mandate can be considered one of state censorship.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 'goose bumps' (piloerection) that occurs with sudden discontinuation in persons dependent on opioids, frequently persons addicted to heroin.   Similarly the term 'kick the habit' alludes to the muscle spasms that also occur. </t>
+  </si>
+  <si>
+    <t>Impeachment in the United States is an enumerated power of the legislature that allows formal charges to be brought against a civil officer of government for crimes alleged to have been committed. Most impeachments have concerned alleged crimes committed while in office, though there have been a few cases in which Congress has impeached and convicted officials partly for prior crimes.  The actual trial on such charges, and subsequent removal of an official upon conviction, is separate from the act of impeachment itself. Impeachment proceedings have been initiated against several presidents of the United States. Andrew Johnson and Bill Clinton are the only two presidents to have been successfully impeached by the House of Representatives, and both were later acquitted by the Senate.  The impeachment process against Richard Nixon was never completed, as Nixon resigned his office before the vote of the full House for impeachment, but such a vote was widely expected to pass, and the threat of it and a subsequent conviction in the Senate was the impetus for Nixon's departure. To date, no president has been removed from office by impeachment and conviction. The impeached official continues in office until conviction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The use of petroleum dates back to ancient China more than 2000 years ago. In I Ching, one of the earliest Chinese writings cites the use of oil in its raw state without refining was first discovered, extracted, and used in China in the first century BCE. In addition, the Chinese were the first to use petroleum as fuel as the early as the fourth century BCE.    </t>
+  </si>
+  <si>
+    <t>She attended the British drama school East 15 in 2005, and left after winning a high-profile role in the BBC drama Waterloo Road, playing the bully Leigh-Ann Galloway.  Since that role, Matthews has continued to act in BBC's Doctors, playing Connie Whitfield; in ITV's The Bill playing drug addict Josie Clarke; and she was back in the BBC soap Doctors in 2009, playing Tansy Flack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">California State University, East Bay (commonly referred to as Cal State East Bay, CSU East Bay, or CSUEB) is a publicuniversity located in Hayward, California, United States. The university, as part of the 23-campus California State University system, offers 136 undergraduate and 60 post-baccalaureate a reas of study. California State University, East Bay has been designated a top–tier institution among master's–granting universities in the west by U.S. News &amp; World Report  and has been recognized as a 'Best in the West' college by the Princeton Review. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anamudi (Malayalam pronunciation: ​[aːnɐmʊɖi], ആനമുടി) is a mountain located in the Indian state of Kerala. It is the highest peak in the Kerala and South India, at an elevation of 2,695 metres (8,842 ft)   and a topographic prominence of 2,479 metres (8,133 ft).  It lies on the border of Devikulam Taluk, Idukki district and Kothamangalam Taluk, Ernakulam district.  The name Anamudi literally translates to 'elephant's forehead,' a reference to the resemblance of the mountain to an elephant's head. </t>
+  </si>
+  <si>
+    <t>King's Highway 401, commonly referred to as Highway 401 and also known by its official name as the Macdonald–Cartier Freeway or colloquially as the four-oh-one,  is a controlled-access400-series highway in the Canadian province of Ontario. It stretches 828.0 kilometres (514.5 mi) from Windsor in the west to the Ontario–Quebec border in the east. The part of Highway 401 that passes through Toronto is North America's busiest highway,   and one of the widest.   Together with Quebec Autoroute 20, it forms the road transportation backbone of the Quebec City–Windsor Corridor, along which over half of Canada's population resides and is also a Core Route in the National Highway System of Canada. The route is maintained by the Ministry of Transportation of Ontario (MTO) and patrolled by the Ontario Provincial Police. The speed limit is 100 km/h (62 mph) throughout its length, unless posted otherwise.</t>
+  </si>
+  <si>
+    <t>In the 19th century, the mass-to-charge ratios of some ions were measured by electrochemical methods. In 1897, the mass-to-charge ratio of the electron was first measured by J. J. Thomson.   By doing this, he showed that the electron was in fact a particle with a mass and a charge, and that its mass-to-charge ratio was much smaller than that of the hydrogen ion H+. In 1898, Wilhelm Wien separated ions (canal rays) according to their mass-to-charge ratio with an ion optical device with superimposed electric and magnetic fields (Wien filter). In 1901 Walter Kaufman measured the increase of electromagnetic mass of fast electrons (Kaufmann–Bucherer–Neumann experiments), or relativistic mass increase in modern terms. In 1913, Thomson measured the mass-to-charge ratio of ions with an instrument he called a parabola spectrograph.  Today, an instrument that measures the mass-to-charge ratio of charged particles is called a mass spectrometer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two months before filming, Lori Petty, Reeves and Swayze trained with former world-class professional surfer Dennis Jarvis on the Hawaiian island of Kauai.  Jarvis remembers, 'Patrick said he'd been on a board a couple of times, Keanu definitely had not surfed before, and Lori had never been in the ocean in her life.'  Shooting the surfing sequences proved to be challenging for both actors, with Swayze cracking four of his ribs. For many of the surfing scenes, he refused to use a stunt double as he never had one for fight scenes or car chases. He also did the skydiving scenes himself and the film's aerial jump instructor Jim Wallace found that the actor was a natural and took to it right away.  The actor ended up making 55 jumps for the film.  Swayze actually based aspects of his character after one of his stunt doubles, Darrick Doerner, a top big wave surfer.  After learning to surf for the film, Reeves took a liking to it and took it up as a hobby. </t>
   </si>
 </sst>
 </file>
@@ -670,11 +670,11 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>{"question": {"text": "what is the widest highway in north america ?"}, "answers": {"items": [{"text":"King's Highway 401, commonly referred to as Highway 401 and also known by its official name as the Macdonald–Cartier Freeway or colloquially as the four-oh-one,[3] is a controlled-access400-series highway in the Canadian province of Ontario. It stretches 828.0 kilometres (514.5 mi) from Windsor in the west to the Ontario–Quebec border in the east. The part of Highway 401 that passes through Toronto is North America's busiest highway,[4][5] and one of the widest.[6][7] Together with Quebec Autoroute 20, it forms the road transportation backbone of the Quebec City–Windsor Corridor, along which over half of Canada's population resides and is also a Core Route in the National Highway System of Canada. The route is maintained by the Ministry of Transportation of Ontario (MTO) and patrolled by the Ontario Provincial Police. The speed limit is 100 km/h (62 mph) throughout its length, unless posted otherwise.", "eval": {"human": 1}}]}},</v>
+        <v>{"question": {"text": "what is the widest highway in north america ?"}, "answers": {"items": [{"text":"King's Highway 401, commonly referred to as Highway 401 and also known by its official name as the Macdonald–Cartier Freeway or colloquially as the four-oh-one,  is a controlled-access400-series highway in the Canadian province of Ontario. It stretches 828.0 kilometres (514.5 mi) from Windsor in the west to the Ontario–Quebec border in the east. The part of Highway 401 that passes through Toronto is North America's busiest highway,   and one of the widest.   Together with Quebec Autoroute 20, it forms the road transportation backbone of the Quebec City–Windsor Corridor, along which over half of Canada's population resides and is also a Core Route in the National Highway System of Canada. The route is maintained by the Ministry of Transportation of Ontario (MTO) and patrolled by the Ontario Provincial Police. The speed limit is 100 km/h (62 mph) throughout its length, unless posted otherwise.", "eval": {"human": 1}}]}},</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -682,7 +682,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -694,7 +694,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -706,11 +706,11 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>{"question": {"text": "who did holly matthews play in waterloo rd ?"}, "answers": {"items": [{"text":"She attended the British drama school East 15 in 2005, and left after winning a high-profile role in the BBC drama Waterloo Road, playing the bully Leigh-Ann Galloway.[6] Since that role, Matthews has continued to act in BBC's Doctors, playing Connie Whitfield; in ITV's The Bill playing drug addict Josie Clarke; and she was back in the BBC soap Doctors in 2009, playing Tansy Flack.", "eval": {"human": 1}}]}},</v>
+        <v>{"question": {"text": "who did holly matthews play in waterloo rd ?"}, "answers": {"items": [{"text":"She attended the British drama school East 15 in 2005, and left after winning a high-profile role in the BBC drama Waterloo Road, playing the bully Leigh-Ann Galloway.  Since that role, Matthews has continued to act in BBC's Doctors, playing Connie Whitfield; in ITV's The Bill playing drug addict Josie Clarke; and she was back in the BBC soap Doctors in 2009, playing Tansy Flack.", "eval": {"human": 1}}]}},</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -718,7 +718,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -730,7 +730,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -742,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -754,7 +754,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -766,11 +766,11 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>{"question": {"text": "who determined the mass to charge ratio of an electron ?"}, "answers": {"items": [{"text":"In the 19th century, the mass-to-charge ratios of some ions were measured by electrochemical methods. In 1897, the mass-to-charge ratio of the electron was first measured by J. J. Thomson. [6] By doing this, he showed that the electron was in fact a particle with a mass and a charge, and that its mass-to-charge ratio was much smaller than that of the hydrogen ion H+. In 1898, Wilhelm Wien separated ions (canal rays) according to their mass-to-charge ratio with an ion optical device with superimposed electric and magnetic fields (Wien filter). In 1901 Walter Kaufman measured the increase of electromagnetic mass of fast electrons (Kaufmann–Bucherer–Neumann experiments), or relativistic mass increase in modern terms. In 1913, Thomson measured the mass-to-charge ratio of ions with an instrument he called a parabola spectrograph.[7] Today, an instrument that measures the mass-to-charge ratio of charged particles is called a mass spectrometer.", "eval": {"human": 1}}]}},</v>
+        <v>{"question": {"text": "who determined the mass to charge ratio of an electron ?"}, "answers": {"items": [{"text":"In the 19th century, the mass-to-charge ratios of some ions were measured by electrochemical methods. In 1897, the mass-to-charge ratio of the electron was first measured by J. J. Thomson.   By doing this, he showed that the electron was in fact a particle with a mass and a charge, and that its mass-to-charge ratio was much smaller than that of the hydrogen ion H+. In 1898, Wilhelm Wien separated ions (canal rays) according to their mass-to-charge ratio with an ion optical device with superimposed electric and magnetic fields (Wien filter). In 1901 Walter Kaufman measured the increase of electromagnetic mass of fast electrons (Kaufmann–Bucherer–Neumann experiments), or relativistic mass increase in modern terms. In 1913, Thomson measured the mass-to-charge ratio of ions with an instrument he called a parabola spectrograph.  Today, an instrument that measures the mass-to-charge ratio of charged particles is called a mass spectrometer.", "eval": {"human": 1}}]}},</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -778,11 +778,11 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
-        <v>{"question": {"text": "where does the last name downs come from ?"}, "answers": {"items": [{"text":"Downs is a surname of Old English origin.[1]", "eval": {"human": 1}}]}},</v>
+        <v>{"question": {"text": "where does the last name downs come from ?"}, "answers": {"items": [{"text":"Downs is a surname of Old English origin. ", "eval": {"human": 1}}]}},</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -790,7 +790,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -802,11 +802,11 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>{"question": {"text": "what is the value of g on the surface of the moon ?"}, "answers": {"items": [{"text":"The acceleration due to gravity on the surface of the Moon is about 1.625 m/s2, about 16.6% that on Earth's surface or 0.16 ɡ.[1] Over the entire surface, the variation in gravitational acceleration is about 0.0253 m/s2 (1.6% of the acceleration due to gravity). Because weight is directly dependent upon gravitational acceleration, things on the Moon will weigh only 16.6% of what they weigh on the Earth.", "eval": {"human": 1}}]}},</v>
+        <v>{"question": {"text": "what is the value of g on the surface of the moon ?"}, "answers": {"items": [{"text":"The acceleration due to gravity on the surface of the Moon is about 1.625 m/s2, about 16.6% that on Earth's surface or 0.16 ɡ.  Over the entire surface, the variation in gravitational acceleration is about 0.0253 m/s2 (1.6% of the acceleration due to gravity). Because weight is directly dependent upon gravitational acceleration, things on the Moon will weigh only 16.6% of what they weigh on the Earth.", "eval": {"human": 1}}]}},</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -814,7 +814,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -826,11 +826,11 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>{"question": {"text": "who surfed for patrick swayze in point break ?"}, "answers": {"items": [{"text":"Two months before filming, Lori Petty, Reeves and Swayze trained with former world-class professional surfer Dennis Jarvis on the Hawaiian island of Kauai.[7] Jarvis remembers, 'Patrick said he'd been on a board a couple of times, Keanu definitely had not surfed before, and Lori had never been in the ocean in her life.'[10] Shooting the surfing sequences proved to be challenging for both actors, with Swayze cracking four of his ribs. For many of the surfing scenes, he refused to use a stunt double as he never had one for fight scenes or car chases. He also did the skydiving scenes himself and the film's aerial jump instructor Jim Wallace found that the actor was a natural and took to it right away.[7] The actor ended up making 55 jumps for the film.[11] Swayze actually based aspects of his character after one of his stunt doubles, Darrick Doerner, a top big wave surfer.[12] After learning to surf for the film, Reeves took a liking to it and took it up as a hobby.[13]", "eval": {"human": 1}}]}},</v>
+        <v>{"question": {"text": "who surfed for patrick swayze in point break ?"}, "answers": {"items": [{"text":"Two months before filming, Lori Petty, Reeves and Swayze trained with former world-class professional surfer Dennis Jarvis on the Hawaiian island of Kauai.  Jarvis remembers, 'Patrick said he'd been on a board a couple of times, Keanu definitely had not surfed before, and Lori had never been in the ocean in her life.'  Shooting the surfing sequences proved to be challenging for both actors, with Swayze cracking four of his ribs. For many of the surfing scenes, he refused to use a stunt double as he never had one for fight scenes or car chases. He also did the skydiving scenes himself and the film's aerial jump instructor Jim Wallace found that the actor was a natural and took to it right away.  The actor ended up making 55 jumps for the film.  Swayze actually based aspects of his character after one of his stunt doubles, Darrick Doerner, a top big wave surfer.  After learning to surf for the film, Reeves took a liking to it and took it up as a hobby. ", "eval": {"human": 1}}]}},</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -838,11 +838,11 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>{"question": {"text": "what is the film and publication board role ?"}, "answers": {"items": [{"text":"The Film and Publication Board, often shortened to FPB, is a content-classification and censorship authority in South Africa, operating under the Minister of Communications. The FPB was established in 1998[1] under the Films and Publications Act, ostensibly to tackle issues of child pornography and child abuse, as well as to provide ratings to publicly consumed media such as movies, music and television programs. Under these directives, its mandate can be considered one of state censorship.", "eval": {"human": 1}}]}},</v>
+        <v>{"question": {"text": "what is the film and publication board role ?"}, "answers": {"items": [{"text":"The Film and Publication Board, often shortened to FPB, is a content-classification and censorship authority in South Africa, operating under the Minister of Communications. The FPB was established in 1998  under the Films and Publications Act, ostensibly to tackle issues of child pornography and child abuse, as well as to provide ratings to publicly consumed media such as movies, music and television programs. Under these directives, its mandate can be considered one of state censorship.", "eval": {"human": 1}}]}},</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -850,7 +850,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -862,7 +862,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -874,7 +874,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
@@ -886,11 +886,11 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>{"question": {"text": "where is california state university east bay located ?"}, "answers": {"items": [{"text":"California State University, East Bay (commonly referred to as Cal State East Bay, CSU East Bay, or CSUEB) is a publicuniversity located in Hayward, California, United States. The university, as part of the 23-campus California State University system, offers 136 undergraduate and 60 post-baccalaureate a reas of study. California State University, East Bay has been designated a top–tier institution among master's–granting universities in the west by U.S. News &amp; World Report[6] and has been recognized as a 'Best in the West' college by the Princeton Review.[6]", "eval": {"human": 1}}]}},</v>
+        <v>{"question": {"text": "where is california state university east bay located ?"}, "answers": {"items": [{"text":"California State University, East Bay (commonly referred to as Cal State East Bay, CSU East Bay, or CSUEB) is a publicuniversity located in Hayward, California, United States. The university, as part of the 23-campus California State University system, offers 136 undergraduate and 60 post-baccalaureate a reas of study. California State University, East Bay has been designated a top–tier institution among master's–granting universities in the west by U.S. News &amp; World Report  and has been recognized as a 'Best in the West' college by the Princeton Review. ", "eval": {"human": 1}}]}},</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -898,11 +898,11 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>{"question": {"text": "which is the highest peak of southern india ?"}, "answers": {"items": [{"text":"Anamudi (Malayalam pronunciation: ​[aːnɐmʊɖi], ആനമുടി) is a mountain located in the Indian state of Kerala. It is the highest peak in the Kerala and South India, at an elevation of 2,695 metres (8,842 ft)[1][2] and a topographic prominence of 2,479 metres (8,133 ft).[3] It lies on the border of Devikulam Taluk, Idukki district and Kothamangalam Taluk, Ernakulam district.[5] The name Anamudi literally translates to 'elephant's forehead,' a reference to the resemblance of the mountain to an elephant's head.[6]", "eval": {"human": 1}}]}},</v>
+        <v>{"question": {"text": "which is the highest peak of southern india ?"}, "answers": {"items": [{"text":"Anamudi (Malayalam pronunciation: ​[aːnɐmʊɖi], ആനമുടി) is a mountain located in the Indian state of Kerala. It is the highest peak in the Kerala and South India, at an elevation of 2,695 metres (8,842 ft)   and a topographic prominence of 2,479 metres (8,133 ft).  It lies on the border of Devikulam Taluk, Idukki district and Kothamangalam Taluk, Ernakulam district.  The name Anamudi literally translates to 'elephant's forehead,' a reference to the resemblance of the mountain to an elephant's head. ", "eval": {"human": 1}}]}},</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -910,11 +910,11 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>{"question": {"text": "where did the saying quit cold turkey come from ?"}, "answers": {"items": [{"text":"The 'goose bumps' (piloerection) that occurs with sudden discontinuation in persons dependent on opioids, frequently persons addicted to heroin.[1][2] Similarly the term 'kick the habit' alludes to the muscle spasms that also occur.[1]", "eval": {"human": 1}}]}},</v>
+        <v>{"question": {"text": "where did the saying quit cold turkey come from ?"}, "answers": {"items": [{"text":"The 'goose bumps' (piloerection) that occurs with sudden discontinuation in persons dependent on opioids, frequently persons addicted to heroin.   Similarly the term 'kick the habit' alludes to the muscle spasms that also occur. ", "eval": {"human": 1}}]}},</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -922,7 +922,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -934,11 +934,11 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>{"question": {"text": "who has the power to convict the president upon impeachment ?"}, "answers": {"items": [{"text":"Impeachment in the United States is an enumerated power of the legislature that allows formal charges to be brought against a civil officer of government for crimes alleged to have been committed. Most impeachments have concerned alleged crimes committed while in office, though there have been a few cases in which Congress has impeached and convicted officials partly for prior crimes.[1] The actual trial on such charges, and subsequent removal of an official upon conviction, is separate from the act of impeachment itself. Impeachment proceedings have been initiated against several presidents of the United States. Andrew Johnson and Bill Clinton are the only two presidents to have been successfully impeached by the House of Representatives, and both were later acquitted by the Senate.[2] The impeachment process against Richard Nixon was never completed, as Nixon resigned his office before the vote of the full House for impeachment, but such a vote was widely expected to pass, and the threat of it and a subsequent conviction in the Senate was the impetus for Nixon's departure. To date, no president has been removed from office by impeachment and conviction. The impeached official continues in office until conviction.", "eval": {"human": 1}}]}},</v>
+        <v>{"question": {"text": "who has the power to convict the president upon impeachment ?"}, "answers": {"items": [{"text":"Impeachment in the United States is an enumerated power of the legislature that allows formal charges to be brought against a civil officer of government for crimes alleged to have been committed. Most impeachments have concerned alleged crimes committed while in office, though there have been a few cases in which Congress has impeached and convicted officials partly for prior crimes.  The actual trial on such charges, and subsequent removal of an official upon conviction, is separate from the act of impeachment itself. Impeachment proceedings have been initiated against several presidents of the United States. Andrew Johnson and Bill Clinton are the only two presidents to have been successfully impeached by the House of Representatives, and both were later acquitted by the Senate.  The impeachment process against Richard Nixon was never completed, as Nixon resigned his office before the vote of the full House for impeachment, but such a vote was widely expected to pass, and the threat of it and a subsequent conviction in the Senate was the impetus for Nixon's departure. To date, no president has been removed from office by impeachment and conviction. The impeached official continues in office until conviction.", "eval": {"human": 1}}]}},</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -946,11 +946,11 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>{"question": {"text": "how long have we been using oil as a fuel source ?"}, "answers": {"items": [{"text":"The use of petroleum dates back to ancient China more than 2000 years ago. In I Ching, one of the earliest Chinese writings cites the use of oil in its raw state without refining was first discovered, extracted, and used in China in the first century BCE. In addition, the Chinese were the first to use petroleum as fuel as the early as the fourth century BCE.[2][3][4][5]", "eval": {"human": 1}}]}},</v>
+        <v>{"question": {"text": "how long have we been using oil as a fuel source ?"}, "answers": {"items": [{"text":"The use of petroleum dates back to ancient China more than 2000 years ago. In I Ching, one of the earliest Chinese writings cites the use of oil in its raw state without refining was first discovered, extracted, and used in China in the first century BCE. In addition, the Chinese were the first to use petroleum as fuel as the early as the fourth century BCE.    ", "eval": {"human": 1}}]}},</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -958,7 +958,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -970,7 +970,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -982,7 +982,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
@@ -994,7 +994,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
